--- a/ig/sd-intégration-jdv-R5/ValueSet-eclaire-study-title-type-vs.xlsx
+++ b/ig/sd-intégration-jdv-R5/ValueSet-eclaire-study-title-type-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Type de contact" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Définition des t" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T13:23:16+00:00</t>
+    <t>2023-09-01T13:38:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/CodeSystem/eclaire-type-contact-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/CodeSystem/eclaire-study-title-type-code-system</t>
   </si>
 </sst>
 </file>
